--- a/data/trans_orig/Q5402-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Clase-trans_orig.xlsx
@@ -3001,7 +3001,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -6435,7 +6435,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -9869,7 +9869,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -13303,7 +13303,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
